--- a/Logic/Function Test Case.xlsx
+++ b/Logic/Function Test Case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MISA\MISA-Fresher-GD2\Logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F5D044-5B6D-4A53-AAEB-91037DE876BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2240F7C-E221-48E4-BC53-2411AB2861B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>STT</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>IV. Kiểm tra hiệu năng</t>
-  </si>
-  <si>
-    <t>Nhập không thành công(Ấn Lưu hoặc Lưu và thêm mới hoặc Lưu và nhân bản)</t>
   </si>
   <si>
     <t>1. (Ấn lưu)Sửa thành công, đóng Form
@@ -150,9 +147,6 @@
     <t xml:space="preserve">2. Có tiện ích thêm mới nhóm </t>
   </si>
   <si>
-    <t>3. Có tất cả các phím tắt này</t>
-  </si>
-  <si>
     <t>1. Hiệu năng sửa form thành công
   - Thay đổi dữ liệu đầy đủ -&gt; refresh trang
   - Bật form
@@ -222,21 +216,7 @@
     <t>Sửa, Thêm mới thành công</t>
   </si>
   <si>
-    <t>3. Tiện ích phím tắt
-  - Ctrl + S: lưu
-  - Ctrl + Shift + C: lưu và nhân bản
-  - Ctrl + Shift + S: lưu và thêm mới
-  - Ctrl + B: hủy bỏ
-  - Ctrl + 1: Thêm mới
-  - Ctrl + E: Sửa
-  - Ctrl + D: Xóa
-  - Ctrl + Y: Nạp</t>
-  </si>
-  <si>
     <t>Tiện tích thêm nhóm hàng hóa</t>
-  </si>
-  <si>
-    <t>Phím tắt</t>
   </si>
   <si>
     <t>Thêm, Sửa</t>
@@ -323,6 +303,19 @@
   - Trường input ảnh(Ảnh hàng hóa)
   - Các nút bấm(Lưu, Lưu và nhân bản, Lưu và thêm mới, Hủy bỏ)
 </t>
+  </si>
+  <si>
+    <t>X: Đạt 
+-: Chưa Đạt</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Thanh điều hướng(Thêm mới, Nhân bản, Sửa, Xóa, Nạp)</t>
+  </si>
+  <si>
+    <t>Nhập không thành công(Ấn Lưu)</t>
   </si>
 </sst>
 </file>
@@ -479,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -516,8 +509,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -528,32 +539,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -564,10 +556,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -788,11 +789,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z990"/>
+  <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -803,22 +804,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -841,13 +844,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -874,16 +877,18 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>32</v>
+      <c r="B3" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="33" t="s">
+        <v>55</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -907,19 +912,21 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="32">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>34</v>
+      <c r="B4" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="33" t="s">
+        <v>55</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -943,15 +950,17 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="33" t="s">
+        <v>55</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -975,15 +984,17 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="33" t="s">
+        <v>55</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1006,20 +1017,22 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="204" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1043,13 +1056,13 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1076,16 +1089,18 @@
       <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>32</v>
+      <c r="B9" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1109,19 +1124,21 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
+      <c r="A10" s="21">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>53</v>
+      <c r="E10" s="8" t="s">
+        <v>55</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="14"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1145,15 +1162,17 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1177,15 +1196,17 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="25"/>
       <c r="C12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="14"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1209,19 +1230,21 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="204" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+      <c r="A13" s="21">
         <v>3</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>40</v>
+      <c r="B13" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1245,15 +1268,17 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="25"/>
       <c r="C14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>13</v>
+      <c r="E14" s="9" t="s">
+        <v>55</v>
       </c>
-      <c r="E14" s="7"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1277,19 +1302,21 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+      <c r="A15" s="21">
         <v>4</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>9</v>
+      <c r="B15" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>15</v>
+      <c r="E15" s="9" t="s">
+        <v>55</v>
       </c>
-      <c r="E15" s="7"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1313,15 +1340,17 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="18" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>17</v>
+      <c r="E16" s="9" t="s">
+        <v>55</v>
       </c>
-      <c r="E16" s="7"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1345,15 +1374,17 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>19</v>
+      <c r="E17" s="9" t="s">
+        <v>55</v>
       </c>
-      <c r="E17" s="7"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1377,15 +1408,17 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="25"/>
       <c r="C18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>21</v>
+      <c r="E18" s="9" t="s">
+        <v>55</v>
       </c>
-      <c r="E18" s="7"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1409,13 +1442,13 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1442,16 +1475,18 @@
       <c r="A20" s="12">
         <v>1</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>56</v>
+      <c r="B20" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1478,16 +1513,18 @@
       <c r="A21" s="12">
         <v>2</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>42</v>
+      <c r="B21" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1510,20 +1547,14 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>3</v>
+    <row r="22" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>8</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="7"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1546,14 +1577,22 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
-        <v>8</v>
+    <row r="23" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <v>1</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1576,20 +1615,18 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
-        <v>1</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="20" t="s">
+    <row r="24" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1613,15 +1650,21 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="9">
+        <v>2</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="C25" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1644,20 +1687,12 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
-        <v>2</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="7"/>
+    <row r="26" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="35"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1680,12 +1715,12 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1713,7 +1748,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1741,7 +1776,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="35"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1769,7 +1804,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1797,7 +1832,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="35"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1825,7 +1860,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1853,7 +1888,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="35"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1881,7 +1916,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="35"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1909,7 +1944,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="35"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1937,7 +1972,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1965,7 +2000,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="35"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -28644,50 +28679,22 @@
       <c r="Y989" s="1"/>
       <c r="Z989" s="1"/>
     </row>
-    <row r="990" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A990" s="3"/>
-      <c r="B990" s="1"/>
-      <c r="C990" s="1"/>
-      <c r="D990" s="1"/>
-      <c r="E990" s="1"/>
-      <c r="F990" s="1"/>
-      <c r="G990" s="1"/>
-      <c r="H990" s="1"/>
-      <c r="I990" s="1"/>
-      <c r="J990" s="1"/>
-      <c r="K990" s="1"/>
-      <c r="L990" s="1"/>
-      <c r="M990" s="1"/>
-      <c r="N990" s="1"/>
-      <c r="O990" s="1"/>
-      <c r="P990" s="1"/>
-      <c r="Q990" s="1"/>
-      <c r="R990" s="1"/>
-      <c r="S990" s="1"/>
-      <c r="T990" s="1"/>
-      <c r="U990" s="1"/>
-      <c r="V990" s="1"/>
-      <c r="W990" s="1"/>
-      <c r="X990" s="1"/>
-      <c r="Y990" s="1"/>
-      <c r="Z990" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
